--- a/biology/Histoire de la zoologie et de la botanique/Vladimir_Palladine/Vladimir_Palladine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Vladimir_Palladine/Vladimir_Palladine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Ivanovitch Palladine (Влади́мир Ива́нович Палла́дин), né le 11 (23) juillet 1859 à Moscou et mort le 3 février 1922 à Pétrograd, est un botaniste russe, spécialiste de physiologie végétale et de biochimie. Il était membre de l'Académie des sciences de Saint-Pétersbourg (membre-correspondant à partir de 1905) de 1914 à sa mort, et le père du biochimiste Alexandre Palladine (1885-1972).
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Palladine fait ses études secondaires au lycée (gymnase) N°1 de Moscou, puis entre au département des sciences naturelles de la faculté de physique et de mathématiques de l'université de Moscou, où il fut entre autres l'élève de Timiriazev et de Gorojankine. Il termine ses études en 1883, mais demeure à l'université pour se préparer au professorat.
-Palladine est nommé en 1886 assistant de l'inspecteur et devient enseignant de botanique et d'allemand. L'année suivante, il est nommé professeur de botanique à l'institut d'agriculture et de culture forestière de Novo-Alexandria[1] et défend sa thèse (magister) sur la signification de l'oxygène pour les plantes. Il présente sa thèse de doctorat de troisième cycle en 1889 sur l'influence de l'oxygène dans la chute des protéines végétales, à la suite de quoi il est nommé professeur à la chaire d'anatomie et de physiologie végétales de l'université de Kharkov. Il fait un voyage d'études en Allemagne en 1893-1894. Il est nommé professeur de l'université de Varsovie en 1897 tout en donnant des cours à l'institut polytechnique de Varsovie.
+Palladine est nommé en 1886 assistant de l'inspecteur et devient enseignant de botanique et d'allemand. L'année suivante, il est nommé professeur de botanique à l'institut d'agriculture et de culture forestière de Novo-Alexandria et défend sa thèse (magister) sur la signification de l'oxygène pour les plantes. Il présente sa thèse de doctorat de troisième cycle en 1889 sur l'influence de l'oxygène dans la chute des protéines végétales, à la suite de quoi il est nommé professeur à la chaire d'anatomie et de physiologie végétales de l'université de Kharkov. Il fait un voyage d'études en Allemagne en 1893-1894. Il est nommé professeur de l'université de Varsovie en 1897 tout en donnant des cours à l'institut polytechnique de Varsovie.
 Palladine s'installe à Saint-Pétersbourg en 1901, où il devient professeur à l'université, puis dirige à partir de 1904 la chaire de botanique des cours Bestoujev. C'est à cette époque qu'il rédige nombre d'articles de botanique pour l'encyclopédie Brockhaus et Efron.
 Il devient membre effectif de l'Académie des sciences de la capitale impériale en 1914 et cesse d'enseigner à l'université. Après la révolution de 1917, il fuit Pétrograd et se trouve à Kharkov puis en Crimée où il travaille à l'université de Tauride (située à Simféropol) et devient directeur du jardin botanique de Nikita. Il retourne à Pétrograd dans le courant de l'année 1921 avant de mourir quelques mois plus tard.
 </t>
@@ -545,16 +559,52 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>О внутреннем строении и способе утолщения клеточной оболочки и крахмального зерна, in Учёных записках Московского университета, 1884.
 Физиология растений [Physiologie végétale] / avec 5 portraits et 182 illustrations dans le texte. — 6е éd. — Saint-Pétersbourg.: éd. А. S. Souvorine, 1911. — X + 356 pages.
 Физиология растений [Physiologie végétale]. — 9е éd. — Moscou — Léningrad, 1924
 Микробиология в сельском хозяйстве [Microbiologie en agriculture]. — Léningrad, 1924
 Дыхание растений и его отношение к процессам превращения вещества и энергии в растениях [La Respiration des plantes et sa relation dans le processus de métamorphose des substances chimiques et l'énergie végétale] // Записки АН СССР, série 8. — 1930. — Т. 37. —№ 3
-Избранные труды [Travaux choisis]. — Moscou, 1960 (avec biographie et liste des publications)
-Publications en allemand ou en français
-Kohlenhydrate als Oxydationsproducte der Eiweisstoffe (Berichte bot. Ges., 1889)
+Избранные труды [Travaux choisis]. — Moscou, 1960 (avec biographie et liste des publications)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vladimir_Palladine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vladimir_Palladine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications en allemand ou en français</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kohlenhydrate als Oxydationsproducte der Eiweisstoffe (Berichte bot. Ges., 1889)
 Atmung und Wachstum (1887)
 Bildung der organischen Säuren in wachsenden Pflanzen (1888)
 Über Eiweißzersetzung bei Abwesenheit von freiem Sauerstoff (1889)
